--- a/_doc_root/db/money_manager.xlsx
+++ b/_doc_root/db/money_manager.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\743522\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="TABLES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>Tracker Id</t>
   </si>
@@ -50,18 +45,6 @@
     <t>User Id</t>
   </si>
   <si>
-    <t>Tracker Name</t>
-  </si>
-  <si>
-    <t>Tracker Display Label</t>
-  </si>
-  <si>
-    <t>Tracker Description</t>
-  </si>
-  <si>
-    <t>Owner Id</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -95,27 +78,9 @@
     <t>Table : TRACKER_ACCESS</t>
   </si>
   <si>
-    <t>Tables : USERS</t>
-  </si>
-  <si>
     <t>Table : TRACKERS</t>
   </si>
   <si>
-    <t>F_NAME</t>
-  </si>
-  <si>
-    <t>L_NAME</t>
-  </si>
-  <si>
-    <t>DISPLAY_NAME</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -125,26 +90,116 @@
     <t>Table : USER_SESSSION</t>
   </si>
   <si>
-    <t>User_id</t>
-  </si>
-  <si>
-    <t>Session_Id</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
-    <t>Expiry</t>
-  </si>
-  <si>
-    <t>Currency</t>
+    <t>Tables : User</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>providerData</t>
+  </si>
+  <si>
+    <t>additionalProvidersData</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>resetPasswordToken</t>
+  </si>
+  <si>
+    <t>resetPasswordExpires</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>'user'</t>
+  </si>
+  <si>
+    <t>'user', 'admin'</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>expires</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>ownerId</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,16 +213,29 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,13 +243,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,247 +540,499 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="17.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7">
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
+    <row r="86" spans="3:3">
+      <c r="C86" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/_doc_root/db/money_manager.xlsx
+++ b/_doc_root/db/money_manager.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Tracker Id</t>
   </si>
@@ -183,9 +183,6 @@
     <t>session</t>
   </si>
   <si>
-    <t>ownerId</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>users</t>
+  </si>
+  <si>
+    <t>owner</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="39" spans="3:7">
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="42" spans="3:7">
       <c r="C42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -917,13 +917,22 @@
     </row>
     <row r="43" spans="3:7">
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
     <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
         <v>18</v>
